--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_148.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_148.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -528,178 +538,186 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(40.96, 43.3)]</t>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(66.1, 84.78)]</t>
+          <t>[('0:00:13.720000', '0:00:22.200000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -708,220 +726,228 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[('0:01:37.720000', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:13.080000', '0:00:19.460000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(21.44, 24.72)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:36.640000', '0:00:38.520000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -929,179 +955,187 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_95</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['E:min', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:39.979523', '0:00:47.885918')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:04.800000', '0:00:08.240000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.4, 41.7)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:34.940000', '0:00:36.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1109,94 +1143,51 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.6, 13.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.24, 29.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
